--- a/XCADeferred/IHE_ITI_XCA_Deferred_CommentDisposition.xlsx
+++ b/XCADeferred/IHE_ITI_XCA_Deferred_CommentDisposition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="2900" windowWidth="23660" windowHeight="12900"/>
+    <workbookView xWindow="600" yWindow="1360" windowWidth="27420" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Comment Form" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="189">
   <si>
     <t>Priority</t>
   </si>
@@ -1051,42 +1051,60 @@
     <t>Good catch. Moved and clarified the line.</t>
   </si>
   <si>
+    <t>No, this was a change inherited from the AS4 supplement, which this supplement assumes.</t>
+  </si>
+  <si>
+    <t>Done. Also changed the reference to ITI TF V16.0.</t>
+  </si>
+  <si>
+    <t>Good catch.</t>
+  </si>
+  <si>
+    <t>No, I ordered the steps that way intentionally. You want to mark the request as completed as soon as possible to avoid any race conditions where you take in additional responses for that request while you are sending the ack.</t>
+  </si>
+  <si>
+    <t>Yes, I did try to follow the pattern, but would be ok entertaining alternate wording.</t>
+  </si>
+  <si>
+    <t>Followed the pattern in 3.18.4.1.2.7, but would be happy to adopt this change.</t>
+  </si>
+  <si>
+    <t>Agree.</t>
+  </si>
+  <si>
+    <t>Yes, it is necessary to specify this - Elliott caught this special case. In most cases, the IG returns immediate results in its immediate response, and deferred in deferred results messages. But this case is not obvious. Remember in the immediate (non-deferred) result, it could take some time, while the IG waits for the synchronous responses from a numner of RGs. During this time, an RG could return deferred results. We can't drop them, so should return with the immediate response. Can discuss though.</t>
+  </si>
+  <si>
+    <t>Followed the pattern in 3.38.4.1.2. And just like that, the differences are called out in the cross gateway variety.</t>
+  </si>
+  <si>
+    <t>This is not about an IG that doesn't support the option, rather one that does, but is not using Deferred in some cases. So I think it still belongs here.</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>Good catch. I consider the RSQ and CGQ different requests, but elsewhere in 3.18 it talks about taking the RSQ request and modifying it in-place to make it the CGQ request. So I can change my wording to do the same.
 However, the proposed wording misses the point of why you decide whether a Deferred-Capable RSQ request stays Deferred-Capable when it becomes a CGQ. It has to do with the IGs knowledge of the RGs support or lack thereof of the Deferred option. I'll fix here and in 3.43.4.1.3.3.
-"What does it mean to send a regular Cross Gateway Query request? Since the Initiating Gatway has recieved a Deferred-Capable Query removing the Deferred Response endpoint shuold be sufficient." You are correct to a point, but also there is the additional behavior (retaining the request id, etc.) that can be skipped.</t>
-  </si>
-  <si>
-    <t>No, this was a change inherited from the AS4 supplement, which this supplement assumes.</t>
-  </si>
-  <si>
-    <t>Done. Also changed the reference to ITI TF V16.0.</t>
-  </si>
-  <si>
-    <t>Good catch.</t>
-  </si>
-  <si>
-    <t>No, I ordered the steps that way intentionally. You want to mark the request as completed as soon as possible to avoid any race conditions where you take in additional responses for that request while you are sending the ack.</t>
-  </si>
-  <si>
-    <t>Yes, I did try to follow the pattern, but would be ok entertaining alternate wording.</t>
-  </si>
-  <si>
-    <t>Followed the pattern in 3.18.4.1.2.7, but would be happy to adopt this change.</t>
-  </si>
-  <si>
-    <t>Agree.</t>
-  </si>
-  <si>
-    <t>Yes, it is necessary to specify this - Elliott caught this special case. In most cases, the IG returns immediate results in its immediate response, and deferred in deferred results messages. But this case is not obvious. Remember in the immediate (non-deferred) result, it could take some time, while the IG waits for the synchronous responses from a numner of RGs. During this time, an RG could return deferred results. We can't drop them, so should return with the immediate response. Can discuss though.</t>
-  </si>
-  <si>
-    <t>Followed the pattern in 3.38.4.1.2. And just like that, the differences are called out in the cross gateway variety.</t>
-  </si>
-  <si>
-    <t>Agree. Also changed to refer to a single IG, not plural, to match your wording.</t>
-  </si>
-  <si>
-    <t>This is not about an IG that doesn't support the option, rather one that does, but is not using Deferred in some cases. So I think it still belongs here.</t>
+"What does it mean to send a regular Cross Gateway Query request? Since the Initiating Gatway has recieved a Deferred-Capable Query removing the Deferred Response endpoint shuold be sufficient." Agree.</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>In process</t>
+  </si>
+  <si>
+    <t>Discussed in depth. ITI-38 and ITI-39 only explicitly call out one-to-many triggering and consolidation behaviors on the IG for the XDS Affinity Domain case. However, it is de facto understood (and enforced at Connectathon) that IGs need to do this behavior in all cases. We decided to follow the pattern and be silent.</t>
+  </si>
+  <si>
+    <t>Decided to remove bullet entirely; not as much a differentiator, and caching/queuing implied by the long latencies anyway.</t>
+  </si>
+  <si>
+    <t>Agree. Also changed to refer to a single IG, not plural, to match your wording. Fixed in 3.38 as well.</t>
+  </si>
+  <si>
+    <t>Agree. Fixed in all Trigger Events sections that reference a message.</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1287,21 +1305,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1314,7 +1317,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1330,8 +1333,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1347,12 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1378,11 +1393,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1390,6 +1408,15 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1397,6 +1424,15 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1733,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1751,38 +1787,39 @@
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="38.6640625" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="269.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="269.25" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" customHeight="1"/>
-    <row r="4" spans="1:10" ht="14.5" customHeight="1" thickBot="1"/>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" thickBot="1">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" customHeight="1"/>
+    <row r="4" spans="1:11" ht="14.5" customHeight="1" thickBot="1"/>
+    <row r="5" spans="1:11" ht="37.5" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1804,17 +1841,20 @@
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="60">
+      <c r="K5" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -1837,14 +1877,17 @@
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60">
+      <c r="J6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1867,14 +1910,17 @@
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="60">
+      <c r="K7" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -1897,14 +1943,17 @@
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="264">
+      <c r="K8" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="264">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -1929,14 +1978,17 @@
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="84">
+      <c r="I9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="84">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1958,14 +2010,17 @@
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="84">
+      <c r="K10" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="84">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -1988,14 +2043,17 @@
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="84">
+      <c r="K11" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="84">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -2018,14 +2076,17 @@
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="60">
+      <c r="K12" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -2050,14 +2111,17 @@
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -2080,14 +2144,17 @@
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K14" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -2112,14 +2179,17 @@
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="108">
+      <c r="J15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="108">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -2135,7 +2205,7 @@
       <c r="E16" s="1">
         <v>546</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2144,14 +2214,17 @@
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -2167,7 +2240,7 @@
       <c r="E17" s="1">
         <v>636</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2176,14 +2249,17 @@
       <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K17" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -2208,14 +2284,17 @@
       <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="I18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K18" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -2240,10 +2319,15 @@
       <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="84">
+      <c r="I19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="84">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -2268,14 +2352,17 @@
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="96">
+      <c r="K20" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="96">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -2300,21 +2387,24 @@
       <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K21" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2332,21 +2422,22 @@
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="I22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2358,20 +2449,21 @@
       <c r="F23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="I23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
@@ -2396,14 +2488,15 @@
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="I24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="8" customFormat="1" ht="168">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="168">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2428,14 +2521,15 @@
       <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="I25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="8" customFormat="1" ht="96">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="120">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2460,14 +2554,17 @@
       <c r="H26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="8" customFormat="1" ht="123" customHeight="1">
+      <c r="J26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="123" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
@@ -2492,14 +2589,15 @@
       <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="I27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="8" customFormat="1" ht="68" customHeight="1">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="68" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -2524,14 +2622,15 @@
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="I28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2556,14 +2655,15 @@
       <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="I29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -2588,14 +2688,15 @@
       <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="I30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="8" customFormat="1" ht="84">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1" ht="84">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -2620,14 +2721,15 @@
       <c r="H31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="I31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2652,14 +2754,15 @@
       <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="8" customFormat="1" ht="108">
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="108">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -2684,14 +2787,15 @@
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="8" customFormat="1" ht="96">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="96">
       <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
@@ -2716,14 +2820,15 @@
       <c r="H34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="I34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -2742,20 +2847,21 @@
       <c r="F35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="10" t="s">
         <v>146</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="I35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="110" customHeight="1">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="110" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>147</v>
       </c>
@@ -2776,14 +2882,15 @@
         <v>150</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="273" customHeight="1">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="273" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
@@ -2804,52 +2911,23 @@
         <v>152</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="7" t="s">
         <v>168</v>
       </c>
+      <c r="K37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H130:H134">
-      <formula1>"Priority Names.A1-3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H129">
-      <formula1>PriorityNames</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Supplement Names'!$A$1:$A$49</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]Supplement Names'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:B35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]Supplement Names'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B36:B37</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>

--- a/XCADeferred/IHE_ITI_XCA_Deferred_CommentDisposition.xlsx
+++ b/XCADeferred/IHE_ITI_XCA_Deferred_CommentDisposition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1360" windowWidth="27420" windowHeight="14320"/>
+    <workbookView xWindow="440" yWindow="1040" windowWidth="28000" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Comment Form" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="189">
   <si>
     <t>Priority</t>
   </si>
@@ -1031,9 +1031,6 @@
 But you're right - the wording reflects when the value could be formatted as an absolute time or a duration. Now it's just an absolute time. Reworded RG behavior  to clarify, left IG behavior as is.</t>
   </si>
   <si>
-    <t>Proposed fix</t>
-  </si>
-  <si>
     <t>Not sure the exact proposal:
 - Is it to add deferred to XDM or XDR?
 - Is it to add a Direct option to Deferred XCA similarly to how Direct was married to XDR?
@@ -1042,9 +1039,6 @@
 Regardless, I would be ok briefly discussing and adding to closed issues. If this were considered at all, it would need to be a separate CP or work item.</t>
   </si>
   <si>
-    <t>Can discuss</t>
-  </si>
-  <si>
     <t>Not sure if the comment is asserting there are impacts to systems that do not wish to implement Deferred XCA. There are none - it is just an option that some systems can implement.</t>
   </si>
   <si>
@@ -1092,9 +1086,6 @@
     <t>Reviewed</t>
   </si>
   <si>
-    <t>In process</t>
-  </si>
-  <si>
     <t>Discussed in depth. ITI-38 and ITI-39 only explicitly call out one-to-many triggering and consolidation behaviors on the IG for the XDS Affinity Domain case. However, it is de facto understood (and enforced at Connectathon) that IGs need to do this behavior in all cases. We decided to follow the pattern and be silent.</t>
   </si>
   <si>
@@ -1105,6 +1096,15 @@
   </si>
   <si>
     <t>Agree. Fixed in all Trigger Events sections that reference a message.</t>
+  </si>
+  <si>
+    <t>Reviewed - it is what it is; any improvement in readability will need to come from an external informative document or guide, out of the scope of this work item.</t>
+  </si>
+  <si>
+    <t>Clarified</t>
+  </si>
+  <si>
+    <t>Drafted text in closed issues (had to make some assumptions about actual tech proposal), reviewed</t>
   </si>
 </sst>
 </file>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1851,7 +1851,7 @@
         <v>154</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60">
@@ -1884,7 +1884,7 @@
         <v>161</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
@@ -1917,7 +1917,7 @@
         <v>156</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
@@ -1944,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="264">
@@ -1979,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="84">
@@ -2017,7 +2017,7 @@
         <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="84">
@@ -2050,7 +2050,7 @@
         <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="84">
@@ -2083,7 +2083,7 @@
         <v>156</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
@@ -2112,13 +2112,13 @@
         <v>8</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="60">
@@ -2145,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="60">
@@ -2186,7 +2186,7 @@
         <v>156</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="108">
@@ -2221,7 +2221,7 @@
         <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" ht="60">
@@ -2256,7 +2256,7 @@
         <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" ht="60">
@@ -2285,13 +2285,13 @@
         <v>8</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="60">
@@ -2320,12 +2320,14 @@
         <v>8</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" ht="84">
       <c r="A20" s="1" t="s">
@@ -2359,7 +2361,7 @@
         <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="96">
@@ -2394,7 +2396,7 @@
         <v>161</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1" ht="60">
@@ -2423,12 +2425,14 @@
         <v>8</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A23" s="1" t="s">
@@ -2456,12 +2460,14 @@
         <v>8</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="24" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A24" s="1" t="s">
@@ -2489,12 +2495,14 @@
         <v>8</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="6" customFormat="1" ht="168">
       <c r="A25" s="1" t="s">
@@ -2522,12 +2530,14 @@
         <v>8</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" ht="120">
       <c r="A26" s="1" t="s">
@@ -2561,7 +2571,7 @@
         <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" ht="123" customHeight="1">
@@ -2590,12 +2600,14 @@
         <v>8</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1" ht="68" customHeight="1">
       <c r="A28" s="1" t="s">
@@ -2623,12 +2635,14 @@
         <v>8</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A29" s="1" t="s">
@@ -2656,12 +2670,14 @@
         <v>8</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A30" s="1" t="s">
@@ -2689,12 +2705,14 @@
         <v>8</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="1:11" s="6" customFormat="1" ht="84">
       <c r="A31" s="1" t="s">
@@ -2722,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>156</v>
@@ -2760,7 +2778,9 @@
       <c r="J32" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="33" spans="1:11" s="6" customFormat="1" ht="108">
       <c r="A33" s="1" t="s">
@@ -2791,9 +2811,11 @@
         <v>165</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K33" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="34" spans="1:11" s="6" customFormat="1" ht="96">
       <c r="A34" s="1" t="s">
@@ -2821,7 +2843,7 @@
         <v>8</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>156</v>
@@ -2854,12 +2876,14 @@
         <v>8</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="110" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -2883,12 +2907,14 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="273" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -2912,12 +2938,14 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K37" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/XCADeferred/IHE_ITI_XCA_Deferred_CommentDisposition.xlsx
+++ b/XCADeferred/IHE_ITI_XCA_Deferred_CommentDisposition.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="189">
   <si>
     <t>Priority</t>
   </si>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2745,7 +2745,9 @@
       <c r="J31" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A32" s="1" t="s">
@@ -2848,7 +2850,9 @@
       <c r="J34" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="35" spans="1:11" s="6" customFormat="1" ht="60">
       <c r="A35" s="1" t="s">
